--- a/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrd_extracted_properties.xlsx
+++ b/DFT_Calculations/3.get_properties/gp_openshell/temp/pyrd_extracted_properties.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
   <si>
     <t>log_name</t>
   </si>
@@ -109,12 +109,6 @@
     <t>NBO_charge_C2</t>
   </si>
   <si>
-    <t>NMR_shift_C1</t>
-  </si>
-  <si>
-    <t>NMR_shift_C2</t>
-  </si>
-  <si>
     <t>distance_C1_C2(Å)</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>Sterimol_B5_C1_C2(Å)_morfeus</t>
-  </si>
-  <si>
-    <t>pyramidalization_Gavrish_C1(°)</t>
-  </si>
-  <si>
-    <t>pyramidalization_Agranat-Radhakrishnan_C1</t>
   </si>
   <si>
     <t>C1_C2_Bond_Order</t>
@@ -608,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS19"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,40 +723,28 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -777,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K2">
         <v>-440.561372</v>
@@ -845,61 +821,49 @@
       <c r="AF2">
         <v>0.07856</v>
       </c>
-      <c r="AG2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
+      <c r="AG2">
+        <v>1.40455</v>
+      </c>
+      <c r="AH2">
+        <v>84.79467975206612</v>
       </c>
       <c r="AI2">
-        <v>1.40455</v>
+        <v>95.94201962809917</v>
       </c>
       <c r="AJ2">
-        <v>84.79467975206612</v>
+        <v>8.780835185633951</v>
       </c>
       <c r="AK2">
-        <v>95.94201962809917</v>
+        <v>1.700434994154955</v>
       </c>
       <c r="AL2">
-        <v>8.780835185633951</v>
-      </c>
-      <c r="AM2">
-        <v>1.700434994154955</v>
-      </c>
-      <c r="AN2">
         <v>4.634241735410031</v>
       </c>
-      <c r="AO2">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AP2">
-        <v>0.0005095253390418424</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>78</v>
+      <c r="AM2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -914,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K3">
         <v>-440.56109</v>
@@ -982,52 +946,40 @@
       <c r="AF3">
         <v>-0.17875</v>
       </c>
-      <c r="AG3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>78</v>
+      <c r="AG3">
+        <v>1.39808</v>
+      </c>
+      <c r="AH3">
+        <v>85.00451962809917</v>
       </c>
       <c r="AI3">
-        <v>1.39808</v>
+        <v>96.91696797520662</v>
       </c>
       <c r="AJ3">
-        <v>85.00451962809917</v>
+        <v>8.964220971661511</v>
       </c>
       <c r="AK3">
-        <v>96.91696797520662</v>
+        <v>1.700709365713107</v>
       </c>
       <c r="AL3">
-        <v>8.964220971661511</v>
-      </c>
-      <c r="AM3">
-        <v>1.700709365713107</v>
-      </c>
-      <c r="AN3">
         <v>4.32023067308818</v>
       </c>
-      <c r="AO3">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AP3">
-        <v>0.0005674069619305055</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>78</v>
+      <c r="AM3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -1051,7 +1003,7 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K4">
         <v>-440.560235</v>
@@ -1119,64 +1071,52 @@
       <c r="AF4">
         <v>-0.08789</v>
       </c>
-      <c r="AG4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>78</v>
+      <c r="AG4">
+        <v>1.39449</v>
+      </c>
+      <c r="AH4">
+        <v>85.30798037190083</v>
       </c>
       <c r="AI4">
-        <v>1.39449</v>
+        <v>96.85240185950413</v>
       </c>
       <c r="AJ4">
-        <v>85.30798037190083</v>
+        <v>7.014937749938195</v>
       </c>
       <c r="AK4">
-        <v>96.85240185950413</v>
+        <v>1.701591752450803</v>
       </c>
       <c r="AL4">
-        <v>7.014937749938195</v>
-      </c>
-      <c r="AM4">
-        <v>1.701591752450803</v>
-      </c>
-      <c r="AN4">
         <v>5.719376375537507</v>
       </c>
-      <c r="AO4">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AP4">
-        <v>0.0002161625401717892</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>78</v>
+      <c r="AM4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -1188,7 +1128,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K5">
         <v>-440.559301</v>
@@ -1256,64 +1196,52 @@
       <c r="AF5">
         <v>0.10001</v>
       </c>
-      <c r="AG5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>78</v>
+      <c r="AG5">
+        <v>1.39445</v>
+      </c>
+      <c r="AH5">
+        <v>85.11428202479338</v>
       </c>
       <c r="AI5">
-        <v>1.39445</v>
+        <v>95.86131198347107</v>
       </c>
       <c r="AJ5">
-        <v>85.11428202479338</v>
+        <v>6.997686399759662</v>
       </c>
       <c r="AK5">
-        <v>95.86131198347107</v>
+        <v>1.700261781974187</v>
       </c>
       <c r="AL5">
-        <v>6.997686399759662</v>
-      </c>
-      <c r="AM5">
-        <v>1.700261781974187</v>
-      </c>
-      <c r="AN5">
         <v>5.73084897754546</v>
       </c>
-      <c r="AO5">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AP5">
-        <v>0.000254140451796319</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>78</v>
+      <c r="AM5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -1325,7 +1253,7 @@
         <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K6">
         <v>-440.560694</v>
@@ -1393,67 +1321,55 @@
       <c r="AF6">
         <v>0.0508</v>
       </c>
-      <c r="AG6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>78</v>
+      <c r="AG6">
+        <v>1.39878</v>
+      </c>
+      <c r="AH6">
+        <v>84.83664772727273</v>
       </c>
       <c r="AI6">
-        <v>1.39878</v>
+        <v>95.90650826446281</v>
       </c>
       <c r="AJ6">
-        <v>84.83664772727273</v>
+        <v>8.950891035953825</v>
       </c>
       <c r="AK6">
-        <v>95.90650826446281</v>
+        <v>1.700104173542563</v>
       </c>
       <c r="AL6">
-        <v>8.950891035953825</v>
-      </c>
-      <c r="AM6">
-        <v>1.700104173542563</v>
-      </c>
-      <c r="AN6">
         <v>4.388775210739726</v>
       </c>
-      <c r="AO6">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AP6">
-        <v>7.763637349886503E-05</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>78</v>
+      <c r="AM6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1462,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K7">
         <v>-440.559622</v>
@@ -1530,67 +1446,55 @@
       <c r="AF7">
         <v>-0.14146</v>
       </c>
-      <c r="AG7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>78</v>
+      <c r="AG7">
+        <v>1.38985</v>
+      </c>
+      <c r="AH7">
+        <v>85.3176652892562</v>
       </c>
       <c r="AI7">
-        <v>1.38985</v>
+        <v>96.87177169421489</v>
       </c>
       <c r="AJ7">
-        <v>85.3176652892562</v>
+        <v>7.039687957386365</v>
       </c>
       <c r="AK7">
-        <v>96.87177169421489</v>
+        <v>1.701500912507519</v>
       </c>
       <c r="AL7">
-        <v>7.039687957386365</v>
-      </c>
-      <c r="AM7">
-        <v>1.701500912507519</v>
-      </c>
-      <c r="AN7">
         <v>5.713309756808888</v>
       </c>
-      <c r="AO7">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AP7">
-        <v>0.0001545261989087327</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>78</v>
+      <c r="AM7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
@@ -1599,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K8">
         <v>-479.875564</v>
@@ -1667,64 +1571,52 @@
       <c r="AF8">
         <v>0.0901</v>
       </c>
-      <c r="AG8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>78</v>
+      <c r="AG8">
+        <v>1.41213</v>
+      </c>
+      <c r="AH8">
+        <v>92.04222623966942</v>
       </c>
       <c r="AI8">
-        <v>1.41213</v>
+        <v>95.82257231404959</v>
       </c>
       <c r="AJ8">
-        <v>92.04222623966942</v>
+        <v>8.816115281956076</v>
       </c>
       <c r="AK8">
-        <v>95.82257231404959</v>
+        <v>1.836962833020313</v>
       </c>
       <c r="AL8">
-        <v>8.816115281956076</v>
-      </c>
-      <c r="AM8">
-        <v>1.836962833020313</v>
-      </c>
-      <c r="AN8">
         <v>4.555282912560074</v>
       </c>
-      <c r="AO8">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AP8">
-        <v>0.0002540081573674681</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>78</v>
+      <c r="AM8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
@@ -1736,7 +1628,7 @@
         <v>6</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K9">
         <v>-479.873294</v>
@@ -1804,67 +1696,55 @@
       <c r="AF9">
         <v>-0.1746</v>
       </c>
-      <c r="AG9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>78</v>
+      <c r="AG9">
+        <v>1.40546</v>
+      </c>
+      <c r="AH9">
+        <v>92.01962809917356</v>
       </c>
       <c r="AI9">
-        <v>1.40546</v>
+        <v>96.81689049586777</v>
       </c>
       <c r="AJ9">
-        <v>92.01962809917356</v>
+        <v>8.980805486176932</v>
       </c>
       <c r="AK9">
-        <v>96.81689049586777</v>
+        <v>1.812052327264021</v>
       </c>
       <c r="AL9">
-        <v>8.980805486176932</v>
-      </c>
-      <c r="AM9">
-        <v>1.812052327264021</v>
-      </c>
-      <c r="AN9">
         <v>4.283119753190393</v>
       </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>9.149531403551907E-11</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>78</v>
+      <c r="AM9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:41">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -1873,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K10">
         <v>-479.867345</v>
@@ -1941,64 +1821,52 @@
       <c r="AF10">
         <v>-0.07975</v>
       </c>
-      <c r="AG10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>78</v>
+      <c r="AG10">
+        <v>1.40503</v>
+      </c>
+      <c r="AH10">
+        <v>92.4167097107438</v>
       </c>
       <c r="AI10">
-        <v>1.40503</v>
+        <v>96.81043388429752</v>
       </c>
       <c r="AJ10">
-        <v>92.4167097107438</v>
+        <v>7.171003908874239</v>
       </c>
       <c r="AK10">
-        <v>96.81043388429752</v>
+        <v>1.821430704841589</v>
       </c>
       <c r="AL10">
-        <v>7.171003908874239</v>
-      </c>
-      <c r="AM10">
-        <v>1.821430704841589</v>
-      </c>
-      <c r="AN10">
         <v>5.671459708322152</v>
       </c>
-      <c r="AO10">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AP10">
-        <v>0.0001143745450932646</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>78</v>
+      <c r="AM10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:41">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -2010,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K11">
         <v>-479.866207</v>
@@ -2078,67 +1946,55 @@
       <c r="AF11">
         <v>0.10711</v>
       </c>
-      <c r="AG11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>78</v>
+      <c r="AG11">
+        <v>1.4054</v>
+      </c>
+      <c r="AH11">
+        <v>92.31986053719008</v>
       </c>
       <c r="AI11">
-        <v>1.4054</v>
+        <v>95.76769111570248</v>
       </c>
       <c r="AJ11">
-        <v>92.31986053719008</v>
+        <v>7.142878029532522</v>
       </c>
       <c r="AK11">
-        <v>95.76769111570248</v>
+        <v>1.759066053647494</v>
       </c>
       <c r="AL11">
-        <v>7.142878029532522</v>
-      </c>
-      <c r="AM11">
-        <v>1.759066053647494</v>
-      </c>
-      <c r="AN11">
         <v>5.687588834217621</v>
       </c>
-      <c r="AO11">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AP11">
-        <v>0.02428144991327511</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>78</v>
+      <c r="AM11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:41">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -2147,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K12">
         <v>-479.873734</v>
@@ -2215,52 +2071,40 @@
       <c r="AF12">
         <v>0.06254</v>
       </c>
-      <c r="AG12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>78</v>
+      <c r="AG12">
+        <v>1.40641</v>
+      </c>
+      <c r="AH12">
+        <v>92.17781508264463</v>
       </c>
       <c r="AI12">
-        <v>1.40641</v>
+        <v>95.87422520661157</v>
       </c>
       <c r="AJ12">
-        <v>92.17781508264463</v>
+        <v>8.947538439925532</v>
       </c>
       <c r="AK12">
-        <v>95.87422520661157</v>
+        <v>1.880294147121327</v>
       </c>
       <c r="AL12">
-        <v>8.947538439925532</v>
-      </c>
-      <c r="AM12">
-        <v>1.880294147121327</v>
-      </c>
-      <c r="AN12">
         <v>4.429263536895336</v>
       </c>
-      <c r="AO12">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AP12">
-        <v>0.0001572384926063548</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>78</v>
+      <c r="AM12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:41">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -2275,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
         <v>1</v>
@@ -2284,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K13">
         <v>-479.866439</v>
@@ -2352,61 +2196,49 @@
       <c r="AF13">
         <v>-0.13558</v>
       </c>
-      <c r="AG13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>78</v>
+      <c r="AG13">
+        <v>1.39918</v>
+      </c>
+      <c r="AH13">
+        <v>92.48773243801654</v>
       </c>
       <c r="AI13">
-        <v>1.39918</v>
+        <v>96.78137913223141</v>
       </c>
       <c r="AJ13">
-        <v>92.48773243801654</v>
+        <v>7.187040879490924</v>
       </c>
       <c r="AK13">
-        <v>96.78137913223141</v>
+        <v>1.816136373411812</v>
       </c>
       <c r="AL13">
-        <v>7.187040879490924</v>
-      </c>
-      <c r="AM13">
-        <v>1.816136373411812</v>
-      </c>
-      <c r="AN13">
         <v>5.663583853863676</v>
       </c>
-      <c r="AO13">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AP13">
-        <v>2.523681076766826E-05</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>78</v>
+      <c r="AM13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:41">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
@@ -2421,7 +2253,7 @@
         <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <v>-286.923974</v>
@@ -2489,61 +2321,49 @@
       <c r="AF14">
         <v>0.06679</v>
       </c>
-      <c r="AG14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>78</v>
+      <c r="AG14">
+        <v>1.40692</v>
+      </c>
+      <c r="AH14">
+        <v>84.74625516528926</v>
       </c>
       <c r="AI14">
-        <v>1.40692</v>
+        <v>95.95170454545455</v>
       </c>
       <c r="AJ14">
-        <v>84.74625516528926</v>
+        <v>6.746703128379112</v>
       </c>
       <c r="AK14">
-        <v>95.95170454545455</v>
+        <v>1.7</v>
       </c>
       <c r="AL14">
-        <v>6.746703128379112</v>
-      </c>
-      <c r="AM14">
-        <v>1.7</v>
-      </c>
-      <c r="AN14">
         <v>3.317542094093886</v>
       </c>
-      <c r="AO14">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AP14">
-        <v>0.0001889526075853006</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>78</v>
+      <c r="AM14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:41">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -2558,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K15">
         <v>-286.922899</v>
@@ -2626,52 +2446,40 @@
       <c r="AF15">
         <v>-0.17567</v>
       </c>
-      <c r="AG15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>78</v>
+      <c r="AG15">
+        <v>1.4035</v>
+      </c>
+      <c r="AH15">
+        <v>84.99806301652893</v>
       </c>
       <c r="AI15">
-        <v>1.4035</v>
+        <v>96.92019628099173</v>
       </c>
       <c r="AJ15">
-        <v>84.99806301652893</v>
+        <v>6.74635374695407</v>
       </c>
       <c r="AK15">
-        <v>96.92019628099173</v>
+        <v>1.700393168949859</v>
       </c>
       <c r="AL15">
-        <v>6.74635374695407</v>
-      </c>
-      <c r="AM15">
-        <v>1.700393168949859</v>
-      </c>
-      <c r="AN15">
         <v>3.264481630609611</v>
       </c>
-      <c r="AO15">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AP15">
-        <v>0.0002837454957284135</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>78</v>
+      <c r="AM15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:41">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2695,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K16">
         <v>-286.922711</v>
@@ -2763,64 +2571,52 @@
       <c r="AF16">
         <v>-0.11395</v>
       </c>
-      <c r="AG16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>78</v>
+      <c r="AG16">
+        <v>1.40729</v>
+      </c>
+      <c r="AH16">
+        <v>84.89798553719008</v>
       </c>
       <c r="AI16">
-        <v>1.40729</v>
+        <v>96.91051136363636</v>
       </c>
       <c r="AJ16">
-        <v>84.89798553719008</v>
+        <v>6.203444744810535</v>
       </c>
       <c r="AK16">
-        <v>96.91051136363636</v>
+        <v>1.7</v>
       </c>
       <c r="AL16">
-        <v>6.203444744810535</v>
-      </c>
-      <c r="AM16">
-        <v>1.7</v>
-      </c>
-      <c r="AN16">
         <v>3.264188925414438</v>
       </c>
-      <c r="AO16">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AP16">
-        <v>0.0009732240900725599</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>78</v>
+      <c r="AM16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:41">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -2832,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K17">
         <v>-326.237649</v>
@@ -2900,64 +2696,52 @@
       <c r="AF17">
         <v>0.07982</v>
       </c>
-      <c r="AG17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>78</v>
+      <c r="AG17">
+        <v>1.4143</v>
+      </c>
+      <c r="AH17">
+        <v>92.04868285123968</v>
       </c>
       <c r="AI17">
-        <v>1.4143</v>
+        <v>95.88068181818183</v>
       </c>
       <c r="AJ17">
-        <v>92.04868285123968</v>
+        <v>6.760238364555905</v>
       </c>
       <c r="AK17">
-        <v>95.88068181818183</v>
+        <v>1.83520682277543</v>
       </c>
       <c r="AL17">
-        <v>6.760238364555905</v>
-      </c>
-      <c r="AM17">
-        <v>1.83520682277543</v>
-      </c>
-      <c r="AN17">
         <v>3.276297649967303</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>1.171549609404351E-11</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>78</v>
+      <c r="AM17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:41">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
         <v>2</v>
@@ -2969,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K18">
         <v>-326.234716</v>
@@ -3037,67 +2821,55 @@
       <c r="AF18">
         <v>-0.16785</v>
       </c>
-      <c r="AG18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>78</v>
+      <c r="AG18">
+        <v>1.41119</v>
+      </c>
+      <c r="AH18">
+        <v>92.07773760330579</v>
       </c>
       <c r="AI18">
-        <v>1.41119</v>
+        <v>96.82334710743802</v>
       </c>
       <c r="AJ18">
-        <v>92.07773760330579</v>
+        <v>6.751395892878591</v>
       </c>
       <c r="AK18">
-        <v>96.82334710743802</v>
+        <v>1.810023778983955</v>
       </c>
       <c r="AL18">
-        <v>6.751395892878591</v>
-      </c>
-      <c r="AM18">
-        <v>1.810023778983955</v>
-      </c>
-      <c r="AN18">
         <v>3.264577882447845</v>
       </c>
-      <c r="AO18">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AP18">
-        <v>0.0004691223045483085</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>78</v>
+      <c r="AM18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:41">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
         <v>1</v>
@@ -3106,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K19">
         <v>-326.235067</v>
@@ -3174,44 +2946,32 @@
       <c r="AF19">
         <v>-0.10295</v>
       </c>
-      <c r="AG19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>78</v>
+      <c r="AG19">
+        <v>1.41541</v>
+      </c>
+      <c r="AH19">
+        <v>91.99380165289256</v>
       </c>
       <c r="AI19">
-        <v>1.41541</v>
+        <v>96.84271694214877</v>
       </c>
       <c r="AJ19">
-        <v>91.99380165289256</v>
+        <v>6.214036305244058</v>
       </c>
       <c r="AK19">
-        <v>96.84271694214877</v>
+        <v>1.809225211600167</v>
       </c>
       <c r="AL19">
-        <v>6.214036305244058</v>
-      </c>
-      <c r="AM19">
-        <v>1.809225211600167</v>
-      </c>
-      <c r="AN19">
         <v>3.265828871770875</v>
       </c>
-      <c r="AO19">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AP19">
-        <v>6.276241943395776E-05</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>78</v>
+      <c r="AM19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
